--- a/Lathe with Magnet.xlsx
+++ b/Lathe with Magnet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirt132\Documents\College Stuff\d Junior Year\Spring 2019\Capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\GitHub\Rocket_Roll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439D3B9E-A259-4D27-A80E-6182B995C330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9CC09-F397-4BDE-A4D9-6E4379C319BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5664" xr2:uid="{D5BD00AC-14D7-4FF4-8028-DA63E0210DB4}"/>
+    <workbookView xWindow="3825" yWindow="0" windowWidth="17258" windowHeight="5663" xr2:uid="{D5BD00AC-14D7-4FF4-8028-DA63E0210DB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Test</t>
   </si>
@@ -56,13 +56,10 @@
     <t>Peaks</t>
   </si>
   <si>
-    <t>Measured Roll Rate (Hz)</t>
-  </si>
-  <si>
     <t>Actual (Hz)</t>
   </si>
   <si>
-    <t>Error (%)</t>
+    <t>Magnetometer</t>
   </si>
 </sst>
 </file>
@@ -414,22 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F871844-3A10-48E5-B2F9-EE2A020DBC55}">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" activeCellId="1" sqref="E3:E12 J3:J12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.46484375" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="16.46484375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -440,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -455,305 +452,235 @@
         <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>123</v>
+        <v>75.3</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">D3/60</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F3">
-        <v>13850</v>
-      </c>
-      <c r="G3">
-        <v>13903</v>
-      </c>
-      <c r="H3">
-        <v>14587</v>
-      </c>
-      <c r="I3">
-        <v>19</v>
+        <f t="shared" ref="E3:E10" si="0">D3/60</f>
+        <v>1.2549999999999999</v>
       </c>
       <c r="J3">
-        <f>I3/((H3-G3)/50)</f>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="K3">
-        <f>((J3-E3)/E3)*100</f>
-        <v>-32.24932249322493</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="D4">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.4</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F4">
-        <v>15275</v>
+        <v>13850</v>
       </c>
       <c r="G4">
-        <v>15289</v>
+        <v>13903</v>
       </c>
       <c r="H4">
-        <v>15680</v>
+        <v>14587</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J12" si="1">I4/((H4-G4)/50)</f>
-        <v>2.3017902813299234</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K12" si="2">((J4-E4)/E4)*100</f>
-        <v>-32.300285843237546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="D5">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.3666666666666663</v>
+        <v>3.4</v>
       </c>
       <c r="F5">
-        <v>16580</v>
+        <v>15275</v>
       </c>
       <c r="G5">
-        <v>16622</v>
+        <v>15289</v>
       </c>
       <c r="H5">
-        <v>17089</v>
+        <v>15680</v>
       </c>
       <c r="I5">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>3.7473233404710919</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-30.174099245880271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="D6">
-        <v>492</v>
+        <v>322</v>
       </c>
       <c r="E6">
-        <f>D6/60</f>
-        <v>8.1999999999999993</v>
+        <f t="shared" si="0"/>
+        <v>5.3666666666666663</v>
       </c>
       <c r="F6">
-        <v>17890</v>
+        <v>16580</v>
       </c>
       <c r="G6">
-        <v>17906</v>
+        <v>16622</v>
       </c>
       <c r="H6">
-        <v>18058</v>
+        <v>17089</v>
       </c>
       <c r="I6">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>5.9210526315789469</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>-27.79204107830552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
+        <v>460</v>
+      </c>
+      <c r="D7">
+        <v>492</v>
+      </c>
+      <c r="E7">
+        <f>D7/60</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F7">
+        <v>17890</v>
+      </c>
+      <c r="G7">
+        <v>17906</v>
+      </c>
+      <c r="H7">
+        <v>18058</v>
+      </c>
+      <c r="I7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
         <v>70</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>75.3</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>1.2549999999999999</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>22780</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>22790</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>23151</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>1.3850415512465375</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>10.36187659334961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
         <v>115</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>123</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>23740</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>23741</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>24261</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>24</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>12.570356472795496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>190</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>204</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>3.4</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>24980</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>25083</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>25296</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>16</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>3.755868544600939</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>10.46672190002762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-      <c r="D10">
-        <v>322</v>
-      </c>
-      <c r="E10">
-        <f>D10/60</f>
-        <v>5.3666666666666663</v>
-      </c>
-      <c r="F10">
-        <v>26310</v>
-      </c>
-      <c r="G10">
-        <v>26412</v>
-      </c>
-      <c r="H10">
-        <v>26572</v>
-      </c>
-      <c r="I10">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>5.9375</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>10.636645962732928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -761,37 +688,29 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="D11">
-        <v>495</v>
+        <v>322</v>
       </c>
       <c r="E11">
         <f>D11/60</f>
-        <v>8.25</v>
+        <v>5.3666666666666663</v>
       </c>
       <c r="F11">
-        <v>27815</v>
+        <v>26310</v>
       </c>
       <c r="G11">
-        <v>28091</v>
+        <v>26412</v>
       </c>
       <c r="H11">
-        <v>28228</v>
+        <v>26572</v>
       </c>
       <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>9.1240875912408743</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>10.595001105949992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -799,34 +718,56 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>750</v>
+        <v>460</v>
       </c>
       <c r="D12">
-        <v>807</v>
+        <v>495</v>
       </c>
       <c r="E12">
         <f>D12/60</f>
+        <v>8.25</v>
+      </c>
+      <c r="F12">
+        <v>27815</v>
+      </c>
+      <c r="G12">
+        <v>28091</v>
+      </c>
+      <c r="H12">
+        <v>28228</v>
+      </c>
+      <c r="I12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>750</v>
+      </c>
+      <c r="D13">
+        <v>807</v>
+      </c>
+      <c r="E13">
+        <f>D13/60</f>
         <v>13.45</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>30685</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>30794</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>30917</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>37</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>15.040650406504065</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>11.826397074379674</v>
       </c>
     </row>
   </sheetData>
